--- a/XL1/redacted_TSA_10_7-July_Chinese-Mandarin_USAF__Gavin _Student-Assessment_Chinese - Mandarin7-2024--TR-26757.xlsx
+++ b/XL1/redacted_TSA_10_7-July_Chinese-Mandarin_USAF__Gavin _Student-Assessment_Chinese - Mandarin7-2024--TR-26757.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,362 +436,313 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ILR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>LevelsDESCRIPTIONCAN DO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>MOST OF</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>THE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>TIMECAN DO</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>SOME OF</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>THE</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>TIMECAN-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>NOT</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>DON/A</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>0+ recognize common greetings  and  introductions X</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>0+understand minimal exchanges, such as formulaic</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>questions and utterancesX</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1 understand simple statements and questions X</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1understand general subject  matter in simple material</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>dealing with self, family, and immediate  environmentX</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2understand main idea and  details in straightforward</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>instructions X</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2understand main idea and  details in straightforward</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>narration across timeframes X</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2understand main idea and  details in straightforward</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>descriptionsX</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>3 comprehend supported opinion X</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>3 comprehend hypothesis  or conjecture X</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>3 draw inferences X</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>3understand commonly  used rhetorical  devices  such</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>as simile and  metaphorX</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>READING:  I can . . .</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>0+ recognize the basic  elements of the writing  system X</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>0+ understand numbers X</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>0+understand some  isolated words and phrases</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>(signage, personal and place names, formulaic</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>expressions)X</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1 understand simple statements and questions X</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1 understand general subject  matter in simple material X</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>2understand main idea and  details in instructions</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>written for general  audienceX</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2understand main idea and  details in narrations</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>across timeframes written for general  audienceX</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2understand main idea and  details in descriptions</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>written for general  audienceX</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>3 comprehend supported opinion X</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>3 comprehend hypothesis  or conjecture X</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>3 comprehend conjecture X</t>
         </is>
